--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C885006-ECFC-4DA2-B133-873C60AC7417}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE2FD6-4274-40B1-8E5D-D93BEDF903F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -267,6 +267,13 @@
   </si>
   <si>
     <t>把分叉的提交历史“整理”成一条直线</t>
+  </si>
+  <si>
+    <t>git remote rm origin</t>
+  </si>
+  <si>
+    <t>删除远程仓（应该是关联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -351,9 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -659,13 +666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -682,7 +689,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
@@ -691,7 +698,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1">
@@ -722,13 +729,13 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -795,7 +802,7 @@
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -806,7 +813,7 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" t="s">
@@ -824,7 +831,7 @@
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -835,7 +842,7 @@
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -854,7 +861,7 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -870,7 +877,7 @@
       <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
@@ -884,7 +891,7 @@
       <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>55</v>
       </c>
@@ -899,7 +906,7 @@
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -907,7 +914,7 @@
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" t="s">
@@ -915,6 +922,14 @@
       </c>
       <c r="B27" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE2FD6-4274-40B1-8E5D-D93BEDF903F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3C2D7-50AC-43B1-AF6D-00BDF9DE7291}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -273,6 +273,22 @@
   </si>
   <si>
     <t>删除远程仓（应该是关联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add -A 添加所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin --delete branchname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除远程仓分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remotes/origin/branchname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -717,7 +736,9 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
       <c r="A7" t="s">
@@ -853,6 +874,7 @@
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A21" t="s">
@@ -861,7 +883,7 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -872,6 +894,7 @@
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1">
       <c r="A23" t="s">
@@ -880,7 +903,7 @@
       <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
@@ -892,7 +915,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="s">
@@ -914,22 +937,36 @@
       <c r="A26" t="s">
         <v>35</v>
       </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3C2D7-50AC-43B1-AF6D-00BDF9DE7291}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005BB0C-18ED-4D6A-A2DE-BD12139BB068}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -289,6 +289,17 @@
   </si>
   <si>
     <t>remotes/origin/branchname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -d beanchname</t>
+  </si>
+  <si>
+    <t>删除分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数-D 强制删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +396,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -708,7 +719,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
@@ -717,7 +728,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1">
@@ -823,7 +834,7 @@
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -834,147 +845,166 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="41.4">
-      <c r="A18" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="41.4">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.6">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" ht="27.6">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
       <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B32" s="1"/>
+      <c r="C32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005BB0C-18ED-4D6A-A2DE-BD12139BB068}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9207E2D-520E-4F95-8F65-6E1CEA472E46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>参数-D 强制删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -a 包括远程仓的分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -829,182 +841,193 @@
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="41.4">
-      <c r="A19" t="s">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="41.4">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.6">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" ht="27.6">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.95" customHeight="1">
-      <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1">
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
     </row>
+    <row r="33" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B33" s="1"/>
+      <c r="C33" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9207E2D-520E-4F95-8F65-6E1CEA472E46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3417239-A692-463E-825C-FC58D4AC1D32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git branch -a 包括远程仓的分支</t>
+    <t>git branch -a 包括远程仓的分支
+-v(-vv) 分支(远程仓分支)信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,14 +840,14 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" ht="27.6">
       <c r="A15" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
     </row>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3417239-A692-463E-825C-FC58D4AC1D32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6606BDE-F7BE-42F2-9050-86A7F7D387B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -313,6 +313,11 @@
   <si>
     <t>git branch -a 包括远程仓的分支
 -v(-vv) 分支(远程仓分支)信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone -b beanchname git@github.com:xiuluo-psz/proj4git.git
+用于clone 远程github中的指定分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,15 +701,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="57.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
     <col min="4" max="4" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -913,14 +918,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="22" spans="1:4" ht="28.2" thickBot="1">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A23" t="s">

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6606BDE-F7BE-42F2-9050-86A7F7D387B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F1296-8CCC-49CC-AE08-ED0AC52F7BD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -318,6 +318,19 @@
   <si>
     <t>git clone -b beanchname git@github.com:xiuluo-psz/proj4git.git
 用于clone 远程github中的指定分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset sha123 filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将指定文件回退到某一版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sha123指历史log中的某一个提交记录，
+之后checkout可以把要回退到的文件检出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -836,206 +849,217 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1">
+    <row r="14" spans="1:3" ht="27.6">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="27.6">
-      <c r="A15" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="27.6">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="41.4">
-      <c r="A20" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="41.4">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27.6">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" ht="27.6">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
       <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.95" customHeight="1">
-      <c r="B32" s="1"/>
-      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:3" ht="19.95" customHeight="1">
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
     </row>
+    <row r="34" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B34" s="1"/>
+      <c r="C34" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F1296-8CCC-49CC-AE08-ED0AC52F7BD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114761F9-843A-4D07-901A-8BF5DC688DD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -331,6 +331,55 @@
   <si>
     <t>sha123指历史log中的某一个提交记录，
 之后checkout可以把要回退到的文件检出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git show commitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看对应commitid修改的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>commitid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是每次提交产生的hash值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log --stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看每次提交对应修改额文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git log -3 --stat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最近三次的查看</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -791,7 +843,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:3" ht="14.4" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -802,264 +854,286 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A9" t="s">
-        <v>12</v>
+    <row r="9" spans="1:3" ht="25.8">
+      <c r="A9" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="27.6">
+    <row r="14" spans="1:3" ht="19.95" customHeight="1">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="27.6">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19.95" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="27.6">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="41.4">
-      <c r="A21" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="41.4">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27.6">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4" ht="27.6">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.2" thickBot="1">
-      <c r="A23" t="s">
+    <row r="25" spans="1:4" ht="28.2" thickBot="1">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A24" t="s">
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.95" customHeight="1">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="19.95" customHeight="1">
-      <c r="B33" s="1"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="2:3" ht="19.95" customHeight="1">
-      <c r="B34" s="1"/>
-      <c r="C34" s="6"/>
+    <row r="35" spans="1:3" ht="19.95" customHeight="1">
+      <c r="B35" s="1"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.95" customHeight="1">
+      <c r="B36" s="1"/>
+      <c r="C36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git_cmd.xlsx
+++ b/git_cmd.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114761F9-843A-4D07-901A-8BF5DC688DD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF4EDB8-D13C-4DFB-922C-A15D0A46149A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>ssh-keygen -t rsa -C  &lt;account&gt;</t>
   </si>
@@ -380,6 +380,38 @@
       </rPr>
       <t>最近三次的查看</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要git add后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到储藏时的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要切换回执行 git stash 时的分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stash --list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看stash记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,21 +799,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" customWidth="1"/>
-    <col min="4" max="4" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
+    <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -789,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -798,23 +831,23 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1">
+    <row r="4" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -823,7 +856,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1">
+    <row r="6" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -834,7 +867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:3" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -843,7 +876,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1">
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -854,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25.8">
+    <row r="9" spans="1:3" ht="26.25">
       <c r="A9" s="8" t="s">
         <v>82</v>
       </c>
@@ -865,7 +898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1">
+    <row r="10" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
@@ -876,7 +909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -885,7 +918,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1">
+    <row r="12" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -896,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -905,7 +938,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1">
+    <row r="14" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -914,7 +947,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -923,7 +956,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="27.6">
+    <row r="16" spans="1:3" ht="28.5">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -934,7 +967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1">
+    <row r="17" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -943,7 +976,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="27.6">
+    <row r="18" spans="1:4" ht="28.5">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -954,27 +987,27 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.95" customHeight="1">
+    <row r="19" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.95" customHeight="1">
+    <row r="20" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.95" customHeight="1">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -985,7 +1018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.95" customHeight="1">
+    <row r="22" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -994,7 +1027,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="41.4">
+    <row r="23" spans="1:4" ht="42.75">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27.6">
+    <row r="24" spans="1:4" ht="28.5">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1016,7 +1049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.2" thickBot="1">
+    <row r="25" spans="1:4" ht="29.25" thickBot="1">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1027,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+    <row r="26" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1038,7 +1071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.95" customHeight="1">
+    <row r="27" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1047,11 +1080,11 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="19.95" customHeight="1">
+    <row r="28" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1061,11 +1094,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.95" customHeight="1">
+    <row r="29" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="6" t="s">
         <v>55</v>
       </c>
@@ -1073,25 +1106,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.95" customHeight="1">
+    <row r="30" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.95" customHeight="1">
+    <row r="31" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="19.95" customHeight="1">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1100,7 +1133,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1">
+    <row r="33" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1109,7 +1142,7 @@
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1">
+    <row r="34" spans="1:3" ht="19.899999999999999" customHeight="1">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1120,13 +1153,35 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
-      <c r="B35" s="1"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1">
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
+    <row r="35" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
